--- a/biology/Microbiologie/Xanthomonas_albilineans/Xanthomonas_albilineans.xlsx
+++ b/biology/Microbiologie/Xanthomonas_albilineans/Xanthomonas_albilineans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthomonas albilineans est une espèce de Protéobacteries de la famille des Xanthomonadaceae, originaire des régions tropicales et subtropicales.
-Cette bactérie phytopathogène, gram négative, en forme de bâtonnet, attaque diverses espèces de la famille des Poaceae (graminées). Elle est responsable notamment d'une maladie grave de la canne à sucre, l'échaudure des feuilles. Elle se manifeste par le blanchiment et la nécrose du feuillage pouvant conduire à la mort de la plante[2].
+Cette bactérie phytopathogène, gram négative, en forme de bâtonnet, attaque diverses espèces de la famille des Poaceae (graminées). Elle est responsable notamment d'une maladie grave de la canne à sucre, l'échaudure des feuilles. Elle se manifeste par le blanchiment et la nécrose du feuillage pouvant conduire à la mort de la plante.
 </t>
         </is>
       </c>
@@ -512,16 +524,88 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xanthomonas albilineans (Ashby 1929) Dowson 1943[3].
-Étymologie
-L'étymologie du nom spécifique de Xanthomonas albilineans est la suivante : al.bi.li.ne.ans. L. masc. adj. albus, blanc; L. pres. part. lineans, rayer; N.L. part. adj. albilineans, rayer blanc[3].
-Synonymes
-Selon Plant Protection Organization (Iran)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xanthomonas albilineans (Ashby 1929) Dowson 1943.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xanthomonas_albilineans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthomonas_albilineans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique de Xanthomonas albilineans est la suivante : al.bi.li.ne.ans. L. masc. adj. albus, blanc; L. pres. part. lineans, rayer; N.L. part. adj. albilineans, rayer blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xanthomonas_albilineans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthomonas_albilineans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plant Protection Organization (Iran) :
 Agrobacterium albilineans (Ashby) Savulescu 1947,
 Pseudomonas albilineans (Ashby) Krasil'nikov 1949,
-Bacterium albilineans Ashby 1929[3],
+Bacterium albilineans Ashby 1929,
 Phytomonas albilineans (Ashby) Magrou 1937,
 Phytomonas Martin &amp; Robinson,
 Xanthomonas albilineans var. paspali Orian 1962.</t>
